--- a/RTM_and_TestExecution_Report.xlsx
+++ b/RTM_and_TestExecution_Report.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-R\Manul testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89109C5D-A050-42D6-BAC7-DF29C2C16B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8587ACD-E5C3-4DB1-B5BC-3FE574F2423E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
     <sheet name="TestExecutionReport" sheetId="2" r:id="rId2"/>
     <sheet name="Test Case Review" sheetId="3" r:id="rId3"/>
+    <sheet name="Test Case Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -265,13 +266,46 @@
   </si>
   <si>
     <t>Noted. Added</t>
+  </si>
+  <si>
+    <t>No. of Test Cases</t>
+  </si>
+  <si>
+    <t>No. of test cases executed</t>
+  </si>
+  <si>
+    <t>No of Passed</t>
+  </si>
+  <si>
+    <t>No of Failed</t>
+  </si>
+  <si>
+    <t>Login Module</t>
+  </si>
+  <si>
+    <t>Filter Module</t>
+  </si>
+  <si>
+    <t>Not Executed Test Cases</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Complete this first</t>
+  </si>
+  <si>
+    <t>Bugs are taking too much time.</t>
+  </si>
+  <si>
+    <t>Many filters are not working at all</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,6 +329,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -336,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -350,6 +392,10 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1017,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17329832-531A-494E-8664-62D69B37FE39}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -1114,4 +1160,131 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F10B367C-121A-4B08-B0EB-61503918A896}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="32" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>22</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>70</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>34</v>
+      </c>
+      <c r="E3">
+        <v>28</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>22</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>18</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>